--- a/2022座席.xlsx
+++ b/2022座席.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2FA9FD-DAB3-4EF9-BD56-3D3E0EE88580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B268AC-CA5E-4FD4-B9F6-31DB8ACA6300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>番号</t>
   </si>
@@ -81,6 +81,265 @@
   </si>
   <si>
     <t>副担任：</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>xaUUJ</t>
+  </si>
+  <si>
+    <t>Nog1x</t>
+  </si>
+  <si>
+    <t>5tz66</t>
+  </si>
+  <si>
+    <t>ERKbv</t>
+  </si>
+  <si>
+    <t>eJsL7</t>
+  </si>
+  <si>
+    <t>k4IjA</t>
+  </si>
+  <si>
+    <t>zXQpN</t>
+  </si>
+  <si>
+    <t>BgPLW</t>
+  </si>
+  <si>
+    <t>diDT8</t>
+  </si>
+  <si>
+    <t>nm4zP</t>
+  </si>
+  <si>
+    <t>WjnLE</t>
+  </si>
+  <si>
+    <t>CTCnf</t>
+  </si>
+  <si>
+    <t>1ngfD</t>
+  </si>
+  <si>
+    <t>TwD7d</t>
+  </si>
+  <si>
+    <t>GGZ0o</t>
+  </si>
+  <si>
+    <t>fcPtF</t>
+  </si>
+  <si>
+    <t>AVBu8</t>
+  </si>
+  <si>
+    <t>uunOE</t>
+  </si>
+  <si>
+    <t>ITG8m</t>
+  </si>
+  <si>
+    <t>pVhXt</t>
+  </si>
+  <si>
+    <t>7PI9V</t>
+  </si>
+  <si>
+    <t>kmkGG</t>
+  </si>
+  <si>
+    <t>LKxc3</t>
+  </si>
+  <si>
+    <t>mnhrL</t>
+  </si>
+  <si>
+    <t>2ejBX</t>
+  </si>
+  <si>
+    <t>tJacs</t>
+  </si>
+  <si>
+    <t>HPgHS</t>
+  </si>
+  <si>
+    <t>TyS1R</t>
+  </si>
+  <si>
+    <t>naLRx</t>
+  </si>
+  <si>
+    <t>PYn4O</t>
+  </si>
+  <si>
+    <t>CPYQV</t>
+  </si>
+  <si>
+    <t>CM9xO</t>
+  </si>
+  <si>
+    <t>JLCru</t>
+  </si>
+  <si>
+    <t>13dH5</t>
+  </si>
+  <si>
+    <t>GOdKN</t>
+  </si>
+  <si>
+    <t>M6k0x</t>
+  </si>
+  <si>
+    <t>S8tMD</t>
+  </si>
+  <si>
+    <t>Xe9GF</t>
+  </si>
+  <si>
+    <t>SE0xD</t>
+  </si>
+  <si>
+    <t>M1Qwa</t>
+  </si>
+  <si>
+    <t>KkY62</t>
+  </si>
+  <si>
+    <t>ekMNW</t>
+  </si>
+  <si>
+    <t>PUH</t>
+  </si>
+  <si>
+    <t>YhR</t>
+  </si>
+  <si>
+    <t>vMw</t>
+  </si>
+  <si>
+    <t>wJ2</t>
+  </si>
+  <si>
+    <t>C1x</t>
+  </si>
+  <si>
+    <t>j7t</t>
+  </si>
+  <si>
+    <t>zeW</t>
+  </si>
+  <si>
+    <t>nlJ</t>
+  </si>
+  <si>
+    <t>NLD</t>
+  </si>
+  <si>
+    <t>YKG</t>
+  </si>
+  <si>
+    <t>tjE</t>
+  </si>
+  <si>
+    <t>hl3</t>
+  </si>
+  <si>
+    <t>urn</t>
+  </si>
+  <si>
+    <t>0dU</t>
+  </si>
+  <si>
+    <t>G4c</t>
+  </si>
+  <si>
+    <t>vlb</t>
+  </si>
+  <si>
+    <t>UzF</t>
+  </si>
+  <si>
+    <t>Qnf</t>
+  </si>
+  <si>
+    <t>K3k</t>
+  </si>
+  <si>
+    <t>hSS</t>
+  </si>
+  <si>
+    <t>J9V</t>
+  </si>
+  <si>
+    <t>4kv</t>
+  </si>
+  <si>
+    <t>p2I</t>
+  </si>
+  <si>
+    <t>z5p</t>
+  </si>
+  <si>
+    <t>1ji</t>
+  </si>
+  <si>
+    <t>UFQ</t>
+  </si>
+  <si>
+    <t>GuT</t>
+  </si>
+  <si>
+    <t>EIL</t>
+  </si>
+  <si>
+    <t>Tub</t>
+  </si>
+  <si>
+    <t>lyn</t>
+  </si>
+  <si>
+    <t>tre</t>
+  </si>
+  <si>
+    <t>pxE</t>
+  </si>
+  <si>
+    <t>0B8</t>
+  </si>
+  <si>
+    <t>g5u</t>
+  </si>
+  <si>
+    <t>usM</t>
+  </si>
+  <si>
+    <t>ZYa</t>
+  </si>
+  <si>
+    <t>JCT</t>
+  </si>
+  <si>
+    <t>KDY</t>
+  </si>
+  <si>
+    <t>vwV</t>
+  </si>
+  <si>
+    <t>chr</t>
+  </si>
+  <si>
+    <t>zVQ</t>
+  </si>
+  <si>
+    <t>UPT</t>
+  </si>
+  <si>
+    <t>担任 :</t>
+    <rPh sb="0" eb="2">
+      <t>タンニン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -748,8 +1007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -778,15 +1037,23 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2"/>
-      <c r="C2"/>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3"/>
-      <c r="C3"/>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
       <c r="D3">
         <v>1</v>
       </c>
@@ -795,43 +1062,67 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4"/>
-      <c r="C4"/>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5"/>
-      <c r="C5"/>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6"/>
-      <c r="C6"/>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7"/>
-      <c r="C7"/>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8"/>
-      <c r="C8"/>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9"/>
-      <c r="C9"/>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>59</v>
+      </c>
       <c r="D9">
         <v>1</v>
       </c>
@@ -840,22 +1131,34 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10"/>
-      <c r="C10"/>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11"/>
-      <c r="C11"/>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12"/>
-      <c r="C12"/>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>62</v>
+      </c>
       <c r="D12">
         <v>1</v>
       </c>
@@ -864,8 +1167,12 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13"/>
-      <c r="C13"/>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>63</v>
+      </c>
       <c r="D13">
         <v>1</v>
       </c>
@@ -874,43 +1181,67 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14"/>
-      <c r="C14"/>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15"/>
-      <c r="C15"/>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16"/>
-      <c r="C16"/>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17"/>
-      <c r="C17"/>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18"/>
-      <c r="C18"/>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19"/>
-      <c r="C19"/>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
+        <v>69</v>
+      </c>
       <c r="D19">
         <v>1</v>
       </c>
@@ -919,22 +1250,34 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20"/>
-      <c r="C20"/>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21"/>
-      <c r="C21"/>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22"/>
-      <c r="C22"/>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
+        <v>72</v>
+      </c>
       <c r="D22">
         <v>1</v>
       </c>
@@ -943,8 +1286,12 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23"/>
-      <c r="C23"/>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s">
+        <v>73</v>
+      </c>
       <c r="D23">
         <v>1</v>
       </c>
@@ -953,15 +1300,23 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24"/>
-      <c r="C24"/>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25"/>
-      <c r="C25"/>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" t="s">
+        <v>75</v>
+      </c>
       <c r="D25">
         <v>1</v>
       </c>
@@ -970,78 +1325,122 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26"/>
-      <c r="C26"/>
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27"/>
-      <c r="C27"/>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28"/>
-      <c r="C28"/>
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29"/>
-      <c r="C29"/>
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30"/>
-      <c r="C30"/>
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31"/>
-      <c r="C31"/>
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32"/>
-      <c r="C32"/>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33"/>
-      <c r="C33"/>
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34"/>
-      <c r="C34"/>
+      <c r="B34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35"/>
-      <c r="C35"/>
+      <c r="B35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36"/>
-      <c r="C36"/>
+      <c r="B36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" t="s">
+        <v>86</v>
+      </c>
       <c r="D36">
         <v>1</v>
       </c>
@@ -1050,29 +1449,45 @@
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37"/>
-      <c r="C37"/>
+      <c r="B37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38"/>
-      <c r="C38"/>
+      <c r="B38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39"/>
-      <c r="C39"/>
+      <c r="B39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40"/>
-      <c r="C40"/>
+      <c r="B40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" t="s">
+        <v>90</v>
+      </c>
       <c r="D40">
         <v>1</v>
       </c>
@@ -1081,8 +1496,12 @@
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41"/>
-      <c r="C41"/>
+      <c r="B41" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" t="s">
+        <v>91</v>
+      </c>
       <c r="D41">
         <v>1</v>
       </c>
@@ -1091,15 +1510,23 @@
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42"/>
-      <c r="C42"/>
+      <c r="B42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43"/>
-      <c r="C43"/>
+      <c r="B43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" t="s">
+        <v>93</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1119,7 +1546,7 @@
   <dimension ref="A1:AE27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="AD15" sqref="AD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -1737,11 +2164,13 @@
       <c r="B24" s="3"/>
       <c r="C24" s="8"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="30" ph="1"/>
-      <c r="F24" s="30" ph="1"/>
-      <c r="G24" s="30" ph="1"/>
-      <c r="H24" s="30" ph="1"/>
-      <c r="I24" s="30" ph="1"/>
+      <c r="E24" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
       <c r="J24" s="31" t="s">
         <v>6</v>
       </c>
@@ -1765,11 +2194,11 @@
       <c r="B25" s="3"/>
       <c r="C25" s="8"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="30" ph="1"/>
-      <c r="F25" s="30" ph="1"/>
-      <c r="G25" s="30" ph="1"/>
-      <c r="H25" s="30" ph="1"/>
-      <c r="I25" s="30" ph="1"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
       <c r="J25" s="31"/>
       <c r="K25" s="31"/>
       <c r="L25" s="31"/>
